--- a/factor analysis results/pc_ratio.xlsx
+++ b/factor analysis results/pc_ratio.xlsx
@@ -443,28 +443,28 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.003388006526143497</v>
+        <v>0.005166504930461568</v>
       </c>
       <c r="C4">
-        <v>0.002665391348662703</v>
+        <v>0.005790543391892142</v>
       </c>
       <c r="D4">
-        <v>0.004400032924326296</v>
+        <v>0.007640198725531978</v>
       </c>
       <c r="E4">
-        <v>0.004848184114888698</v>
+        <v>0.01092704689039443</v>
       </c>
       <c r="F4">
-        <v>0.005203335920856764</v>
+        <v>0.01337984262877659</v>
       </c>
       <c r="G4">
-        <v>0.005311713044449648</v>
+        <v>0.01465272523655241</v>
       </c>
       <c r="H4">
-        <v>0.0001199611989794145</v>
+        <v>0.008431175485705728</v>
       </c>
       <c r="I4">
-        <v>0.001950344803728002</v>
+        <v>0.005780510716131663</v>
       </c>
     </row>
   </sheetData>

--- a/factor analysis results/pc_ratio.xlsx
+++ b/factor analysis results/pc_ratio.xlsx
@@ -455,13 +455,13 @@
         <v>0.01092704689039443</v>
       </c>
       <c r="F4">
-        <v>0.01337984262877659</v>
+        <v>0.01338228340886921</v>
       </c>
       <c r="G4">
-        <v>0.01465272523655241</v>
+        <v>0.01465270269657807</v>
       </c>
       <c r="H4">
-        <v>0.008431175485705728</v>
+        <v>0.008428759960116876</v>
       </c>
       <c r="I4">
         <v>0.005780510716131663</v>
